--- a/Alternative_pathway.xlsx
+++ b/Alternative_pathway.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frame" sheetId="1" r:id="rId1"/>
     <sheet name="Note" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1128,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
     </sheetView>
@@ -1492,7 +1493,7 @@
         <v>381</v>
       </c>
       <c r="Q3" s="56">
-        <f t="shared" ref="Q3:Q31" si="0">((J3^3/I3^3)+0.1)*K3*24*195*0.000001*H3</f>
+        <f t="shared" ref="Q3:Q30" si="0">((J3^3/I3^3)+0.1)*K3*24*195*0.000001*H3</f>
         <v>2622.424285982192</v>
       </c>
       <c r="R3" s="58">
@@ -5440,4 +5441,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Alternative_pathway.xlsx
+++ b/Alternative_pathway.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7195E6D8-A152-4493-A01A-D6DFF3FD9671}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frame" sheetId="1" r:id="rId1"/>
     <sheet name="Note" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -296,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1126,12 +1127,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1314,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="50">
-        <v>373</v>
+        <v>137</v>
       </c>
       <c r="E2" s="50">
-        <v>601.48145208924029</v>
+        <v>837.48145208924029</v>
       </c>
       <c r="F2" s="51">
         <v>853</v>
@@ -1454,10 +1455,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="52">
-        <v>1197</v>
+        <v>421</v>
       </c>
       <c r="E3" s="53">
-        <v>645.118161422311</v>
+        <v>1421.118161422311</v>
       </c>
       <c r="F3" s="53">
         <v>1767</v>
@@ -1593,10 +1594,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="50">
-        <v>2323</v>
+        <v>1169</v>
       </c>
       <c r="E4" s="51">
-        <v>646.41725729717973</v>
+        <v>1800.4172572971797</v>
       </c>
       <c r="F4" s="51">
         <v>2903</v>
@@ -1732,10 +1733,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="52">
-        <v>2221</v>
+        <v>1511</v>
       </c>
       <c r="E5" s="53">
-        <v>1280.3910526740187</v>
+        <v>1990.3910526740187</v>
       </c>
       <c r="F5" s="53">
         <v>3413</v>
@@ -1871,10 +1872,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="50">
-        <v>936</v>
+        <v>373</v>
       </c>
       <c r="E6" s="51">
-        <v>175.50028002511772</v>
+        <v>738.50028002511772</v>
       </c>
       <c r="F6" s="51">
         <v>1098</v>
@@ -2010,10 +2011,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="52">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="E7" s="53">
-        <v>55.474990176827589</v>
+        <v>166.47499017682759</v>
       </c>
       <c r="F7" s="53">
         <v>402</v>
@@ -2149,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="50">
-        <v>358</v>
+        <v>135</v>
       </c>
       <c r="E8" s="51">
-        <v>687.7595643687539</v>
+        <v>910.7595643687539</v>
       </c>
       <c r="F8" s="51">
         <v>969</v>
@@ -2288,10 +2289,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="52">
-        <v>459</v>
+        <v>111</v>
       </c>
       <c r="E9" s="53">
-        <v>312.15697948682669</v>
+        <v>660.15697948682669</v>
       </c>
       <c r="F9" s="53">
         <v>758</v>
@@ -2427,10 +2428,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="50">
-        <v>670</v>
+        <v>114</v>
       </c>
       <c r="E10" s="51">
-        <v>205.41210761487412</v>
+        <v>761.41210761487412</v>
       </c>
       <c r="F10" s="51">
         <v>851</v>
@@ -2566,10 +2567,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="52">
-        <v>1181</v>
+        <v>544</v>
       </c>
       <c r="E11" s="53">
-        <v>460.96365200488663</v>
+        <v>1097.9636520048866</v>
       </c>
       <c r="F11" s="53">
         <v>1607</v>
@@ -3817,10 +3818,10 @@
         <v>31</v>
       </c>
       <c r="D20" s="50">
-        <v>484</v>
+        <v>222</v>
       </c>
       <c r="E20" s="51">
-        <v>596.00619621965075</v>
+        <v>858.00619621965075</v>
       </c>
       <c r="F20" s="51">
         <v>1068</v>
@@ -3956,10 +3957,10 @@
         <v>31</v>
       </c>
       <c r="D21" s="52">
-        <v>388</v>
+        <v>212</v>
       </c>
       <c r="E21" s="53">
-        <v>215.9628559231719</v>
+        <v>391.9628559231719</v>
       </c>
       <c r="F21" s="53">
         <v>569</v>
@@ -4095,10 +4096,10 @@
         <v>31</v>
       </c>
       <c r="D22" s="50">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E22" s="51">
-        <v>3.8830128342772525</v>
+        <v>48.883012834277253</v>
       </c>
       <c r="F22" s="51">
         <v>66.434230845210436</v>
@@ -4234,10 +4235,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="52">
-        <v>719</v>
+        <v>441</v>
       </c>
       <c r="E23" s="53">
-        <v>1750.5756493873319</v>
+        <v>2028.5756493873319</v>
       </c>
       <c r="F23" s="53">
         <v>2393</v>
@@ -4373,10 +4374,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="50">
-        <v>410</v>
+        <v>152</v>
       </c>
       <c r="E24" s="51">
-        <v>121.4746513259181</v>
+        <v>379.4746513259181</v>
       </c>
       <c r="F24" s="51">
         <v>502</v>
@@ -4512,10 +4513,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="52">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E25" s="53">
-        <v>72.879436841400576</v>
+        <v>118.87943684140058</v>
       </c>
       <c r="F25" s="53">
         <v>152</v>
@@ -4651,10 +4652,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="50">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="E26" s="51">
-        <v>226.33895167717117</v>
+        <v>408.33895167717117</v>
       </c>
       <c r="F26" s="51">
         <v>415</v>
@@ -4790,10 +4791,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="52">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="E27" s="53">
-        <v>83.851477291863944</v>
+        <v>257.85147729186394</v>
       </c>
       <c r="F27" s="53">
         <v>290</v>
@@ -4929,10 +4930,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="50">
-        <v>507</v>
+        <v>159</v>
       </c>
       <c r="E28" s="51">
-        <v>203.36486217723973</v>
+        <v>551.36486217723973</v>
       </c>
       <c r="F28" s="51">
         <v>657</v>
@@ -5068,10 +5069,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="52">
-        <v>288</v>
+        <v>124</v>
       </c>
       <c r="E29" s="53">
-        <v>102.44087513607951</v>
+        <v>266.44087513607951</v>
       </c>
       <c r="F29" s="53">
         <v>374</v>
@@ -5207,10 +5208,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="50">
-        <v>414</v>
+        <v>170</v>
       </c>
       <c r="E30" s="51">
-        <v>210.97820491898574</v>
+        <v>454.97820491898574</v>
       </c>
       <c r="F30" s="51">
         <v>713.7251100174816</v>
@@ -5348,7 +5349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5444,10 +5445,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
